--- a/ggma_Business Reference Model_gar.xlsx
+++ b/ggma_Business Reference Model_gar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="314">
   <si>
     <t>(정책목표)
 본부 단위 업무기능</t>
@@ -2361,6 +2361,10 @@
   <si>
     <t>(정책목표)
 본부 단위 업무기능</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -29677,7 +29681,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -29863,7 +29867,9 @@
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>313</v>
+      </c>
       <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
